--- a/excel/2021-07-15.xlsx
+++ b/excel/2021-07-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19102A0033</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Heramba Prasanna Limaye</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>heramba.limaye@vit.edu.in</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-07-15 17:23:57.318624</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/2021-07-15.xlsx
+++ b/excel/2021-07-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,29 +473,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-07-15 16:46:58.966080</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>19102A0033</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Heramba Prasanna Limaye</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>heramba.limaye@vit.edu.in</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:23:57.318624</t>
+          <t>2021-07-15 18:51:46.181295</t>
         </is>
       </c>
     </row>

--- a/excel/2021-07-15.xlsx
+++ b/excel/2021-07-15.xlsx
@@ -458,22 +458,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>19102A0050</t>
+          <t>19102A0033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nimish Girish Samant</t>
+          <t>Heramba Prasanna Limaye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>nimish.samant@vit.edu.in</t>
+          <t>heramba.limaye@vit.edu.in</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-07-15 18:51:46.181295</t>
+          <t>2021-07-15 19:17:36.913697</t>
         </is>
       </c>
     </row>

--- a/excel/2021-07-15.xlsx
+++ b/excel/2021-07-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,6 +477,28 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>19102A0050</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nimish Girish Samant</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>nimish.samant@vit.edu.in</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-07-15 19:21:05.531326</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/2021-07-15.xlsx
+++ b/excel/2021-07-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,28 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>19102A0030</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Shraddha Patangrao Shinde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>shraddha.shinde@vit.edu.in</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-07-15 19:39:12.901187</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
